--- a/Topology/data/results/26-09-22/Final_results_Batch_000.xlsx
+++ b/Topology/data/results/26-09-22/Final_results_Batch_000.xlsx
@@ -225,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,61 +240,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB50927"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC12B30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF536EDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDD9EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC43032"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4C66D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5673E0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D5F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC73635"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF445ACC"/>
+        <fgColor rgb="FFB8122A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE57058"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EA1FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7C5FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A98B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4257C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBD1F2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE97A5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82A6FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3C2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B497"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4358CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE26952"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF779AF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59C7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE8468"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF29072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9785D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B4CC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B093"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF485FD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6CEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98B9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD4C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DBE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A889"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4987A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF39577"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8DCE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6180E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5977E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5572DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6D7CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6788EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC32E31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC53334"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC83836"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B4CC0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9D5CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBD1F2D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3D9D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDCDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8D6CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6BDA2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF82A6FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C1A9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6180E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4961D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD4C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABC8FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEDCDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9DCE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7D7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4D9D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0DBD8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1DAE9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7B99E"/>
+        <fgColor rgb="FF7295F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -492,38 +510,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,67 +1510,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="C2">
         <v>147</v>
       </c>
       <c r="D2">
-        <v>3.422943221320973</v>
+        <v>3.199519230769231</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>2.062849162011173</v>
+        <v>1.943065693430657</v>
       </c>
       <c r="G2">
-        <v>10.04761904761905</v>
+        <v>9.054421768707483</v>
       </c>
       <c r="H2">
-        <v>0.03860931284095293</v>
+        <v>0.03417791267737136</v>
       </c>
       <c r="I2">
-        <v>0.9316338354577057</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>0.03778442081241307</v>
+        <v>0.03255910153357062</v>
       </c>
       <c r="L2">
-        <v>0.04262715428608576</v>
+        <v>0.03292773778753254</v>
       </c>
       <c r="M2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>0.04790799593556026</v>
+        <v>0.0432864448625886</v>
       </c>
       <c r="O2">
-        <v>0.07290126833477319</v>
+        <v>0.04407166491126983</v>
       </c>
       <c r="P2">
-        <v>67110</v>
+        <v>66063</v>
       </c>
       <c r="Q2">
         <v>96415</v>
       </c>
       <c r="R2">
-        <v>102931</v>
+        <v>103141</v>
       </c>
       <c r="S2">
         <v>96415</v>
       </c>
       <c r="T2">
-        <v>1155.045726923077</v>
+        <v>1145.17365</v>
       </c>
       <c r="U2">
-        <v>1201.4455</v>
+        <v>1197.7775</v>
       </c>
       <c r="V2">
-        <v>0.3398592324075772</v>
+        <v>0.3464909943514868</v>
       </c>
       <c r="W2">
         <v>101235.75</v>
@@ -1564,16 +1585,16 @@
         <v>147</v>
       </c>
       <c r="AA2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1582,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.564625850340136</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="AH2">
         <v>55</v>
       </c>
       <c r="AI2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ2">
-        <v>0.3398592324075772</v>
+        <v>0.3464909943514868</v>
       </c>
       <c r="AK2">
         <v>147</v>
       </c>
       <c r="AL2">
-        <v>0.4081632653061225</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="AM2">
-        <v>0.1496598639455782</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="AN2">
-        <v>0.03401360544217687</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="AO2">
-        <v>0.3741496598639456</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="AP2">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1618,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.2544209925841415</v>
+        <v>0.259316496395789</v>
       </c>
       <c r="AT2">
-        <v>0.06758284499299902</v>
+        <v>0.0697609293159778</v>
       </c>
       <c r="AU2">
-        <v>-0.0402643224093339</v>
+        <v>-0.04812892664664043</v>
       </c>
       <c r="AV2">
-        <v>0.108843537414966</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
   </sheetData>
@@ -1794,67 +1815,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>933.4</v>
+        <v>895.6900000000001</v>
       </c>
       <c r="C2">
         <v>147</v>
       </c>
       <c r="D2">
-        <v>3.853416449978433</v>
+        <v>3.766716219808818</v>
       </c>
       <c r="E2">
-        <v>159.4</v>
+        <v>143.56</v>
       </c>
       <c r="F2">
-        <v>2.234230143903507</v>
+        <v>2.195400095628737</v>
       </c>
       <c r="G2">
-        <v>14.29659863945578</v>
+        <v>13.46353741496599</v>
       </c>
       <c r="H2">
-        <v>0.05304776709686324</v>
+        <v>0.0503394276648373</v>
       </c>
       <c r="I2">
-        <v>0.9565482028771672</v>
+        <v>0.9568432544698805</v>
       </c>
       <c r="J2">
-        <v>21.8</v>
+        <v>20.93</v>
       </c>
       <c r="K2">
-        <v>0.05311222342389715</v>
+        <v>0.05035608301960143</v>
       </c>
       <c r="L2">
-        <v>0.05204501536815267</v>
+        <v>0.05000034526700192</v>
       </c>
       <c r="M2">
-        <v>19.6</v>
+        <v>18.53</v>
       </c>
       <c r="N2">
-        <v>0.0634513393780485</v>
+        <v>0.06099151559217852</v>
       </c>
       <c r="O2">
-        <v>0.07845310877247477</v>
+        <v>0.07445152305299717</v>
       </c>
       <c r="P2">
-        <v>69147.60000000001</v>
+        <v>69381.07000000001</v>
       </c>
       <c r="Q2">
         <v>96415</v>
       </c>
       <c r="R2">
-        <v>105382.2</v>
+        <v>104911.13</v>
       </c>
       <c r="S2">
         <v>96415</v>
       </c>
       <c r="T2">
-        <v>1160.592717884615</v>
+        <v>1156.87917031044</v>
       </c>
       <c r="U2">
-        <v>1204.9791</v>
+        <v>1206.261325</v>
       </c>
       <c r="V2">
-        <v>0.372314151891366</v>
+        <v>0.3735522226261688</v>
       </c>
       <c r="W2">
         <v>101235.75</v>
@@ -1869,70 +1890,70 @@
         <v>147</v>
       </c>
       <c r="AA2">
-        <v>62.2</v>
+        <v>63.25</v>
       </c>
       <c r="AB2">
-        <v>25.8</v>
+        <v>24.74</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="AE2">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AF2">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="AG2">
-        <v>0.5768707482993196</v>
+        <v>0.5697278911564626</v>
       </c>
       <c r="AH2">
         <v>55</v>
       </c>
       <c r="AI2">
-        <v>39.6</v>
+        <v>39.42</v>
       </c>
       <c r="AJ2">
-        <v>0.372314151891366</v>
+        <v>0.3735522226261688</v>
       </c>
       <c r="AK2">
         <v>147</v>
       </c>
       <c r="AL2">
-        <v>0.4231292517006803</v>
+        <v>0.4302721088435374</v>
       </c>
       <c r="AM2">
-        <v>0.1755102040816326</v>
+        <v>0.1682993197278911</v>
       </c>
       <c r="AN2">
-        <v>0.04081632653061225</v>
+        <v>0.04489795918367347</v>
       </c>
       <c r="AO2">
-        <v>0.4013605442176871</v>
+        <v>0.4014285714285715</v>
       </c>
       <c r="AP2">
-        <v>0.02040816326530612</v>
+        <v>0.02136054421768708</v>
       </c>
       <c r="AQ2">
-        <v>0.002721088435374149</v>
+        <v>0.002517006802721088</v>
       </c>
       <c r="AR2">
-        <v>0.001360544217687075</v>
+        <v>6.802721088435374E-05</v>
       </c>
       <c r="AS2">
-        <v>0.2828128403256754</v>
+        <v>0.2803913291500285</v>
       </c>
       <c r="AT2">
-        <v>0.09300627495721621</v>
+        <v>0.0881204169475704</v>
       </c>
       <c r="AU2">
-        <v>-0.0368339946173093</v>
+        <v>-0.04094007783737508</v>
       </c>
       <c r="AV2">
-        <v>0.1333333333333334</v>
+        <v>0.1260544217687075</v>
       </c>
     </row>
   </sheetData>
@@ -2099,67 +2120,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1176</v>
+        <v>1281</v>
       </c>
       <c r="C2">
         <v>147</v>
       </c>
       <c r="D2">
-        <v>4.290249433106576</v>
+        <v>4.42296918767507</v>
       </c>
       <c r="E2">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="F2">
-        <v>2.413265306122449</v>
+        <v>2.465261514441842</v>
       </c>
       <c r="G2">
-        <v>19.30612244897959</v>
+        <v>21.48299319727891</v>
       </c>
       <c r="H2">
-        <v>0.06772061074607148</v>
+        <v>0.07075389155118803</v>
       </c>
       <c r="I2">
-        <v>0.9705215419501134</v>
+        <v>0.9740048740861088</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>0.06878317271110812</v>
+        <v>0.0722360177699531</v>
       </c>
       <c r="L2">
-        <v>0.05922011502577829</v>
+        <v>0.06271953743260518</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>0.07888551557518643</v>
+        <v>0.08352152975015467</v>
       </c>
       <c r="O2">
-        <v>0.0873440150878477</v>
+        <v>0.105045471022065</v>
       </c>
       <c r="P2">
-        <v>71885</v>
+        <v>71413</v>
       </c>
       <c r="Q2">
         <v>96415</v>
       </c>
       <c r="R2">
-        <v>108209</v>
+        <v>107306</v>
       </c>
       <c r="S2">
         <v>96415</v>
       </c>
       <c r="T2">
-        <v>1166.283120192308</v>
+        <v>1171.7163</v>
       </c>
       <c r="U2">
-        <v>1210.856</v>
+        <v>1216.3945</v>
       </c>
       <c r="V2">
-        <v>0.4011435533219808</v>
+        <v>0.4197734352083362</v>
       </c>
       <c r="W2">
         <v>101235.75</v>
@@ -2174,70 +2195,70 @@
         <v>147</v>
       </c>
       <c r="AA2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AB2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2">
+        <v>11</v>
+      </c>
+      <c r="AD2">
         <v>7</v>
       </c>
-      <c r="AD2">
-        <v>5</v>
-      </c>
       <c r="AE2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2">
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.5918367346938775</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="AH2">
         <v>55</v>
       </c>
       <c r="AI2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AJ2">
-        <v>0.4011435533219808</v>
+        <v>0.4197734352083362</v>
       </c>
       <c r="AK2">
         <v>147</v>
       </c>
       <c r="AL2">
-        <v>0.4353741496598639</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="AM2">
-        <v>0.1972789115646258</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="AN2">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="AO2">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AP2">
         <v>0.04761904761904762</v>
       </c>
-      <c r="AO2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AP2">
-        <v>0.03401360544217687</v>
-      </c>
       <c r="AQ2">
-        <v>0.006802721088435374</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="AR2">
         <v>0.006802721088435374</v>
       </c>
       <c r="AS2">
-        <v>0.3039464813566354</v>
+        <v>0.3148057874812011</v>
       </c>
       <c r="AT2">
-        <v>0.1223253643105326</v>
+        <v>0.1129596017217238</v>
       </c>
       <c r="AU2">
-        <v>-0.03316197030993084</v>
+        <v>-0.0338298487967396</v>
       </c>
       <c r="AV2">
-        <v>0.1836734693877551</v>
+        <v>0.1564625850340136</v>
       </c>
     </row>
   </sheetData>
@@ -2326,25 +2347,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="D2" s="3">
-        <v>0.992</v>
+        <v>0.983</v>
       </c>
       <c r="E2" s="4">
-        <v>0.928</v>
+        <v>0.723</v>
       </c>
       <c r="F2" s="5">
-        <v>-0.795</v>
+        <v>-0.388</v>
       </c>
       <c r="G2" s="6">
-        <v>0.151</v>
+        <v>0.044</v>
       </c>
       <c r="H2" s="7">
-        <v>0.918</v>
+        <v>0.602</v>
       </c>
       <c r="I2" s="8">
-        <v>0.114</v>
+        <v>-0.251</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2352,28 +2373,28 @@
         <v>49</v>
       </c>
       <c r="B3" s="2">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.988</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.914</v>
-      </c>
-      <c r="F3" s="9">
-        <v>-0.772</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.103</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0.899</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.08699999999999999</v>
+      <c r="D3" s="9">
+        <v>0.966</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-0.362</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.026</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I3" s="14">
+        <v>-0.244</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2381,170 +2402,170 @@
         <v>50</v>
       </c>
       <c r="B4" s="3">
-        <v>0.992</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.988</v>
+        <v>0.983</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.966</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.897</v>
-      </c>
-      <c r="F4" s="13">
-        <v>-0.759</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.916</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0.19</v>
+      <c r="E4" s="15">
+        <v>0.753</v>
+      </c>
+      <c r="F4" s="16">
+        <v>-0.418</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="I4" s="14">
+        <v>-0.245</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.928</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.914</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.897</v>
+      <c r="B5" s="19">
+        <v>0.723</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.753</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
-        <v>-0.949</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.315</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0.954</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.08500000000000001</v>
+      <c r="F5" s="22">
+        <v>-0.751</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.221</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.576</v>
+      </c>
+      <c r="I5" s="25">
+        <v>-0.225</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19">
-        <v>-0.795</v>
-      </c>
-      <c r="C6" s="19">
-        <v>-0.772</v>
-      </c>
-      <c r="D6" s="19">
-        <v>-0.759</v>
-      </c>
-      <c r="E6" s="19">
-        <v>-0.949</v>
+      <c r="B6" s="22">
+        <v>-0.388</v>
+      </c>
+      <c r="C6" s="22">
+        <v>-0.362</v>
+      </c>
+      <c r="D6" s="22">
+        <v>-0.418</v>
+      </c>
+      <c r="E6" s="22">
+        <v>-0.751</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
-        <v>-0.521</v>
-      </c>
-      <c r="H6" s="19">
-        <v>-0.854</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.055</v>
+      <c r="G6" s="22">
+        <v>-0.418</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-0.365</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.192</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="22">
-        <v>0.151</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.103</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.199</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.315</v>
-      </c>
-      <c r="F7" s="26">
-        <v>-0.521</v>
+      <c r="B7" s="27">
+        <v>0.044</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.026</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.221</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-0.418</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="27">
-        <v>0.326</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0.171</v>
+      <c r="H7" s="30">
+        <v>0.267</v>
+      </c>
+      <c r="I7" s="22">
+        <v>-0.284</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.918</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.899</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.916</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.954</v>
-      </c>
-      <c r="F8" s="29">
-        <v>-0.854</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0.326</v>
+      <c r="B8" s="31">
+        <v>0.602</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.576</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-0.365</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.267</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="31">
-        <v>0.374</v>
+      <c r="I8" s="35">
+        <v>-0.126</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="32">
-        <v>0.114</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.19</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.055</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.171</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0.374</v>
+      <c r="B9" s="36">
+        <v>-0.251</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-0.244</v>
+      </c>
+      <c r="D9" s="35">
+        <v>-0.245</v>
+      </c>
+      <c r="E9" s="38">
+        <v>-0.225</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.192</v>
+      </c>
+      <c r="G9" s="40">
+        <v>-0.284</v>
+      </c>
+      <c r="H9" s="41">
+        <v>-0.126</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
